--- a/account_move_import_it/sample_import_file/sample_file_account_move_line.xlsx
+++ b/account_move_import_it/sample_import_file/sample_file_account_move_line.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorio\ODOO15\odoo15\account_move_import_it\sample_import_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sum Vehiculos\clonaciones\odoo15principal\account_move_import_it\sample_import_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AACE80E-73EE-4064-AC98-59A6015E08E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46556A21-1871-4EC4-A422-C15CFB81DE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2685" yWindow="-13620" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTILLA" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="167">
   <si>
     <t>account_id</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Etiqueta_Analitica</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -579,8 +582,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -600,9 +601,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -640,9 +641,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,26 +676,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,26 +711,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -920,80 +887,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1010001</v>
       </c>
@@ -1008,7 +981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1010002</v>
       </c>
@@ -1031,7 +1004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1041001</v>
       </c>
@@ -1046,7 +1019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1041002</v>
       </c>
@@ -1069,7 +1042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1212991</v>
       </c>
@@ -1092,14 +1065,14 @@
       <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="9">
+      <c r="P6" s="7">
         <v>44743</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1212992</v>
       </c>
@@ -1131,7 +1104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4212991</v>
       </c>
@@ -1155,7 +1128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4212992</v>
       </c>
@@ -1186,14 +1159,14 @@
       <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="7">
         <v>44743</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5011000</v>
       </c>
@@ -1208,7 +1181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5911000</v>
       </c>
@@ -1237,13 +1210,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="97.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="97.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1267,7 +1240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1256,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1299,7 +1272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1315,7 +1288,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +1296,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1331,7 +1304,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1339,7 +1312,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1347,7 +1320,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1355,16 +1328,16 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>161</v>
       </c>
       <c r="B15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>162</v>
       </c>
       <c r="B16" t="s">
@@ -1384,14 +1357,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="72" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1399,7 +1372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1413,7 +1386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +1400,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1441,7 +1414,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1455,7 +1428,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1469,7 +1442,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -1483,7 +1456,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -1497,7 +1470,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -1511,7 +1484,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1525,7 +1498,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
@@ -1539,7 +1512,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
@@ -1553,7 +1526,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1567,7 +1540,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>51</v>
       </c>
@@ -1581,7 +1554,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>53</v>
       </c>
@@ -1595,7 +1568,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
@@ -1603,7 +1576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>57</v>
       </c>
@@ -1611,7 +1584,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -1619,7 +1592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>61</v>
       </c>
@@ -1627,7 +1600,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>63</v>
       </c>
@@ -1635,7 +1608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>65</v>
       </c>
@@ -1643,7 +1616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>67</v>
       </c>
@@ -1651,7 +1624,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>69</v>
       </c>
@@ -1659,7 +1632,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>71</v>
       </c>
@@ -1667,7 +1640,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
@@ -1675,7 +1648,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>75</v>
       </c>
@@ -1683,7 +1656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>77</v>
       </c>
@@ -1691,7 +1664,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>79</v>
       </c>
@@ -1699,7 +1672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>81</v>
       </c>
@@ -1707,7 +1680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>83</v>
       </c>
@@ -1715,7 +1688,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>85</v>
       </c>
@@ -1723,7 +1696,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>87</v>
       </c>
@@ -1731,7 +1704,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>89</v>
       </c>
@@ -1739,7 +1712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>91</v>
       </c>
@@ -1747,7 +1720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>93</v>
       </c>
@@ -1755,7 +1728,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>95</v>
       </c>
@@ -1763,7 +1736,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>97</v>
       </c>
@@ -1771,7 +1744,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>99</v>
       </c>
@@ -1779,7 +1752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>101</v>
       </c>
@@ -1787,7 +1760,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>103</v>
       </c>
@@ -1795,7 +1768,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>105</v>
       </c>
@@ -1803,7 +1776,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>107</v>
       </c>
@@ -1811,7 +1784,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>109</v>
       </c>
@@ -1819,7 +1792,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>111</v>
       </c>
@@ -1827,7 +1800,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>113</v>
       </c>
@@ -1835,7 +1808,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>115</v>
       </c>
@@ -1843,7 +1816,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>117</v>
       </c>
@@ -1851,7 +1824,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>119</v>
       </c>
@@ -1859,7 +1832,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>121</v>
       </c>
@@ -1867,7 +1840,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>123</v>
       </c>
@@ -1875,7 +1848,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>125</v>
       </c>

--- a/account_move_import_it/sample_import_file/sample_file_account_move_line.xlsx
+++ b/account_move_import_it/sample_import_file/sample_file_account_move_line.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sum Vehiculos\clonaciones\odoo15principal\account_move_import_it\sample_import_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46556A21-1871-4EC4-A422-C15CFB81DE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F1F46-7792-4AC2-8860-FDCB2738015D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2685" yWindow="-13620" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="168">
   <si>
     <t>account_id</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Etiqueta_Analitica</t>
+  </si>
+  <si>
+    <t>LN0002, LN0008, LM0988</t>
   </si>
 </sst>
 </file>
@@ -907,7 +910,7 @@
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
     <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -979,6 +982,9 @@
       <c r="F2" s="3"/>
       <c r="K2" t="s">
         <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">

--- a/account_move_import_it/sample_import_file/sample_file_account_move_line.xlsx
+++ b/account_move_import_it/sample_import_file/sample_file_account_move_line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sum Vehiculos\clonaciones\odoo15principal\account_move_import_it\sample_import_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F1F46-7792-4AC2-8860-FDCB2738015D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADE81E5-FC61-4CB9-B91A-1B86B8F56899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2685" yWindow="-13620" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="175">
   <si>
     <t>account_id</t>
   </si>
@@ -529,6 +529,27 @@
   </si>
   <si>
     <t>LN0002, LN0008, LM0988</t>
+  </si>
+  <si>
+    <t>Sirve para poner las etiquetas ánaliticas ej. FN011 y automaticamente el sistema reconocera todo el nombre y lo importará</t>
+  </si>
+  <si>
+    <t>LN0002, LN0008, LM0991</t>
+  </si>
+  <si>
+    <t>LN0002, LN0008, LM0993</t>
+  </si>
+  <si>
+    <t>LN0002, LN0008, LM0995</t>
+  </si>
+  <si>
+    <t>LN0002, LN0008, LM0996</t>
+  </si>
+  <si>
+    <t>LN0002, LN0008</t>
+  </si>
+  <si>
+    <t>LN0002</t>
   </si>
 </sst>
 </file>
@@ -538,7 +559,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +571,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -893,7 +920,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,6 +1036,9 @@
       <c r="K3" t="s">
         <v>14</v>
       </c>
+      <c r="M3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1024,6 +1054,9 @@
       <c r="K4" t="s">
         <v>14</v>
       </c>
+      <c r="M4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1047,6 +1080,9 @@
       <c r="K5" t="s">
         <v>14</v>
       </c>
+      <c r="M5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1071,6 +1107,9 @@
       <c r="K6" t="s">
         <v>14</v>
       </c>
+      <c r="M6" t="s">
+        <v>174</v>
+      </c>
       <c r="P6" s="7">
         <v>44743</v>
       </c>
@@ -1109,6 +1148,9 @@
       <c r="K7" t="s">
         <v>14</v>
       </c>
+      <c r="M7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1133,6 +1175,9 @@
       <c r="K8" t="s">
         <v>14</v>
       </c>
+      <c r="M8" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1165,6 +1210,9 @@
       <c r="K9" t="s">
         <v>14</v>
       </c>
+      <c r="M9" t="s">
+        <v>171</v>
+      </c>
       <c r="P9" s="7">
         <v>44743</v>
       </c>
@@ -1186,6 +1234,9 @@
       <c r="K10" t="s">
         <v>14</v>
       </c>
+      <c r="M10" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1201,8 +1252,12 @@
       <c r="K11" t="s">
         <v>14</v>
       </c>
+      <c r="M11" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1210,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,6 +1403,14 @@
       </c>
       <c r="B16" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/account_move_import_it/sample_import_file/sample_file_account_move_line.xlsx
+++ b/account_move_import_it/sample_import_file/sample_file_account_move_line.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorio\ODOO15\odoo15\account_move_import_it\sample_import_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sum Vehiculos\clonaciones\odoo15principal\account_move_import_it\sample_import_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AACE80E-73EE-4064-AC98-59A6015E08E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADE81E5-FC61-4CB9-B91A-1B86B8F56899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2685" yWindow="-13620" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTILLA" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="175">
   <si>
     <t>account_id</t>
   </si>
@@ -523,6 +523,33 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>Etiqueta_Analitica</t>
+  </si>
+  <si>
+    <t>LN0002, LN0008, LM0988</t>
+  </si>
+  <si>
+    <t>Sirve para poner las etiquetas ánaliticas ej. FN011 y automaticamente el sistema reconocera todo el nombre y lo importará</t>
+  </si>
+  <si>
+    <t>LN0002, LN0008, LM0991</t>
+  </si>
+  <si>
+    <t>LN0002, LN0008, LM0993</t>
+  </si>
+  <si>
+    <t>LN0002, LN0008, LM0995</t>
+  </si>
+  <si>
+    <t>LN0002, LN0008, LM0996</t>
+  </si>
+  <si>
+    <t>LN0002, LN0008</t>
+  </si>
+  <si>
+    <t>LN0002</t>
   </si>
 </sst>
 </file>
@@ -532,7 +559,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +571,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -569,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -579,8 +612,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -600,9 +631,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -640,9 +671,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,26 +706,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,26 +741,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -920,80 +917,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1010001</v>
       </c>
@@ -1007,8 +1010,11 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1010002</v>
       </c>
@@ -1030,8 +1036,11 @@
       <c r="K3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1041001</v>
       </c>
@@ -1045,8 +1054,11 @@
       <c r="K4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1041002</v>
       </c>
@@ -1068,8 +1080,11 @@
       <c r="K5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1212991</v>
       </c>
@@ -1092,14 +1107,17 @@
       <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="9">
+      <c r="M6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P6" s="7">
         <v>44743</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1212992</v>
       </c>
@@ -1130,8 +1148,11 @@
       <c r="K7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4212991</v>
       </c>
@@ -1154,8 +1175,11 @@
       <c r="K8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4212992</v>
       </c>
@@ -1186,14 +1210,17 @@
       <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="9">
+      <c r="M9" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" s="7">
         <v>44743</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5011000</v>
       </c>
@@ -1207,8 +1234,11 @@
       <c r="K10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5911000</v>
       </c>
@@ -1222,8 +1252,12 @@
       <c r="K11" t="s">
         <v>14</v>
       </c>
+      <c r="M11" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1231,19 +1265,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="97.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="97.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1267,7 +1301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1317,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1299,7 +1333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1315,7 +1349,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +1357,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1331,7 +1365,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1339,7 +1373,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1347,7 +1381,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1355,20 +1389,28 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>161</v>
       </c>
       <c r="B15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>162</v>
       </c>
       <c r="B16" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1384,14 +1426,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="72" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1399,7 +1441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1413,7 +1455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +1469,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1441,7 +1483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1455,7 +1497,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1469,7 +1511,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -1483,7 +1525,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -1497,7 +1539,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -1511,7 +1553,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
@@ -1525,7 +1567,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
@@ -1539,7 +1581,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
@@ -1553,7 +1595,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -1567,7 +1609,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>51</v>
       </c>
@@ -1581,7 +1623,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>53</v>
       </c>
@@ -1595,7 +1637,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
@@ -1603,7 +1645,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>57</v>
       </c>
@@ -1611,7 +1653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -1619,7 +1661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>61</v>
       </c>
@@ -1627,7 +1669,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>63</v>
       </c>
@@ -1635,7 +1677,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>65</v>
       </c>
@@ -1643,7 +1685,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>67</v>
       </c>
@@ -1651,7 +1693,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>69</v>
       </c>
@@ -1659,7 +1701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>71</v>
       </c>
@@ -1667,7 +1709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
@@ -1675,7 +1717,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>75</v>
       </c>
@@ -1683,7 +1725,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>77</v>
       </c>
@@ -1691,7 +1733,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>79</v>
       </c>
@@ -1699,7 +1741,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>81</v>
       </c>
@@ -1707,7 +1749,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>83</v>
       </c>
@@ -1715,7 +1757,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>85</v>
       </c>
@@ -1723,7 +1765,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>87</v>
       </c>
@@ -1731,7 +1773,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>89</v>
       </c>
@@ -1739,7 +1781,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>91</v>
       </c>
@@ -1747,7 +1789,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>93</v>
       </c>
@@ -1755,7 +1797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>95</v>
       </c>
@@ -1763,7 +1805,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>97</v>
       </c>
@@ -1771,7 +1813,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>99</v>
       </c>
@@ -1779,7 +1821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>101</v>
       </c>
@@ -1787,7 +1829,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>103</v>
       </c>
@@ -1795,7 +1837,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>105</v>
       </c>
@@ -1803,7 +1845,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>107</v>
       </c>
@@ -1811,7 +1853,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>109</v>
       </c>
@@ -1819,7 +1861,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>111</v>
       </c>
@@ -1827,7 +1869,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>113</v>
       </c>
@@ -1835,7 +1877,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>115</v>
       </c>
@@ -1843,7 +1885,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>117</v>
       </c>
@@ -1851,7 +1893,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>119</v>
       </c>
@@ -1859,7 +1901,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>121</v>
       </c>
@@ -1867,7 +1909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>123</v>
       </c>
@@ -1875,7 +1917,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>125</v>
       </c>
